--- a/OnlineExchangeSystem/Documentation/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/OnlineExchangeSystem/Documentation/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joro\Desktop\SPA-with-AngularJS.git\trunk\OnlineExchangeSystem\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -170,9 +170,6 @@
     <t>GitHub (up to 100)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Basic Options (up to 130)</t>
   </si>
   <si>
@@ -197,7 +194,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>∞</t>
+    <t>Georgi.Lambov.7</t>
+  </si>
+  <si>
+    <t>Georgi Lambov</t>
+  </si>
+  <si>
+    <t>GeorgiLambov</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -360,6 +366,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,18 +388,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,7 +673,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +685,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -688,56 +694,62 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
+      <c r="D8" s="12">
+        <v>15</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -746,25 +758,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
-        <v>57</v>
+      <c r="D9" s="12">
+        <v>48</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
+      <c r="C11" s="5">
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -775,7 +787,9 @@
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
@@ -785,7 +799,9 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
@@ -795,7 +811,9 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
@@ -805,7 +823,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -815,7 +835,9 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
@@ -825,7 +847,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +859,9 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -845,7 +871,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -855,7 +883,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -865,7 +895,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -875,7 +907,9 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
@@ -885,7 +919,9 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
@@ -895,7 +931,9 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
@@ -905,7 +943,9 @@
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
@@ -915,7 +955,9 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>10</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
@@ -925,7 +967,9 @@
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
@@ -935,7 +979,9 @@
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
@@ -945,7 +991,9 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
@@ -955,7 +1003,9 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
@@ -965,7 +1015,9 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -975,25 +1027,29 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="B33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1003,7 +1059,9 @@
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1013,7 +1071,9 @@
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1083,9 @@
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
@@ -1033,7 +1095,9 @@
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1043,7 +1107,9 @@
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1053,7 +1119,9 @@
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1131,9 @@
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1143,9 @@
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1155,9 @@
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1093,7 +1167,9 @@
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1103,7 +1179,9 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1113,7 +1191,9 @@
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1123,7 +1203,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1133,7 +1215,9 @@
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1227,9 @@
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1153,7 +1239,9 @@
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1165,7 +1253,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
